--- a/Order Wise Summary/Month Septembar - 2021/Eurotex Knitwear Ltd/Close/PG-30746.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Eurotex Knitwear Ltd/Close/PG-30746.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Date:</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>12.09.21</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>Euro Tex Ltd</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,6 +494,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,6 +564,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,12 +884,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38:F38"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
     <col min="4" max="5" width="12.28515625" style="4" customWidth="1"/>
@@ -896,51 +908,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="49"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -960,63 +976,63 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="44"/>
+      <c r="P4" s="45"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1619,29 +1635,29 @@
       <c r="Q31"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30">
         <v>6476.1</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
       <c r="Q32"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="29">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="30">
         <v>6476.1</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1655,14 +1671,14 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1676,16 +1692,16 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26">
         <v>6481</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -1699,14 +1715,14 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1720,16 +1736,16 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26">
         <v>6481</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1743,14 +1759,14 @@
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1764,14 +1780,14 @@
       <c r="Q38"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1785,12 +1801,12 @@
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -1887,32 +1903,33 @@
       <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="J5:Q5"/>
     <mergeCell ref="A33:C33"/>
@@ -1938,7 +1955,8 @@
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0" top="0" bottom="0" header="0.2" footer="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0" top="0.5" bottom="0" header="0.2" footer="0"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>